--- a/Г-динамика/lab2.xlsx
+++ b/Г-динамика/lab2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diontep/workspace/6sem/Г-динамика/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84B4F7C6-7688-5B43-9347-2CDAC46DF9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABDC814-B1EB-E947-8CF0-61AE5ABAFF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,60 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="4">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="4">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+    <bk>
+      <rc t="1" v="2"/>
+    </bk>
+    <bk>
+      <rc t="1" v="3"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="23">
   <si>
     <t>№</t>
   </si>
@@ -95,12 +147,21 @@
   <si>
     <t>Re</t>
   </si>
+  <si>
+    <t>y(1-Vx/Vb)</t>
+  </si>
+  <si>
+    <t>*Vx/Vb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> V(столб_мах)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +184,38 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -138,7 +231,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -435,11 +528,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
@@ -539,6 +701,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -616,16 +847,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -677,16 +908,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3343098464352929</c:v>
+                  <c:v>1.5600288018799584</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7049347425507253</c:v>
+                  <c:v>1.9126176140061766</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6751818132559446</c:v>
+                  <c:v>2.9568464104432604</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1523836806996606</c:v>
+                  <c:v>4.3910121681921765</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -738,16 +969,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.049841122793832</c:v>
+                  <c:v>1.2781865882220893</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3453758040554822</c:v>
+                  <c:v>1.5563765351337013</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0891067657991154</c:v>
+                  <c:v>2.3760603593403435</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.294220882072433</c:v>
+                  <c:v>3.536198990449829</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -777,6 +1008,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -799,6 +1031,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="med" len="lg"/>
+          </a:ln>
+        </c:spPr>
         <c:crossAx val="123613568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -841,6 +1081,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="med" len="lg"/>
+          </a:ln>
+        </c:spPr>
         <c:crossAx val="123615488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -1252,6 +1500,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1263,8 +1512,17 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Vx</a:t>
+                  <a:t>V,</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t>м/с</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1274,6 +1532,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="med" len="lg"/>
+          </a:ln>
+        </c:spPr>
         <c:crossAx val="213093760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -1299,6 +1565,18 @@
                   <a:rPr lang="el-GR"/>
                   <a:t>δ</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t>мм</a:t>
+                </a:r>
                 <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:rich>
@@ -1309,6 +1587,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="med" len="lg"/>
+          </a:ln>
+        </c:spPr>
         <c:crossAx val="120038528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -1855,13 +2141,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16799071563478193</c:v>
+                  <c:v>0.16374307184652584</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33598143126956387</c:v>
+                  <c:v>0.32748614369305168</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.67196286253912774</c:v>
+                  <c:v>0.65497228738610336</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -1918,10 +2204,19 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="med" len="lg"/>
+          </a:ln>
+        </c:spPr>
         <c:crossAx val="117516160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -1938,6 +2233,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="med" len="lg"/>
+          </a:ln>
+        </c:spPr>
         <c:crossAx val="117519488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -2029,16 +2332,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2090,16 +2393,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.352818840667072</c:v>
+                  <c:v>1.3912186359193484</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8960482257306734</c:v>
+                  <c:v>1.947902858089811</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4953941602191994</c:v>
+                  <c:v>2.5704785546664262</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9763549617052565</c:v>
+                  <c:v>3.0535643087766378</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2151,16 +2454,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5817097493433363</c:v>
+                  <c:v>3.6220353657735256</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.2137286077824117</c:v>
+                  <c:v>6.2811540823826535</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.7026646266201109</c:v>
+                  <c:v>9.8184052272721036</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.895863397261731</c:v>
+                  <c:v>13.028648360475776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2190,10 +2493,19 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="med" len="lg"/>
+          </a:ln>
+        </c:spPr>
         <c:crossAx val="116288512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -2210,6 +2522,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle" w="med" len="lg"/>
+          </a:ln>
+        </c:spPr>
         <c:crossAx val="116290688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -2280,7 +2600,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3657600" y="3337560"/>
+          <a:off x="4074059" y="3269307"/>
           <a:ext cx="160020" cy="182880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2464,14 +2784,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>558501</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>262748</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>103543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>253701</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>636441</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>173467</xdr:rowOff>
     </xdr:to>
@@ -2500,16 +2820,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>415125</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>125093</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>35892</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>183897</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2572,16 +2892,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>367553</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>107577</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>663307</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>55385</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>26894</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>74460</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>166072</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2690,6 +3010,774 @@
     </cdr:pic>
   </cdr:relSizeAnchor>
 </c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4623D44D-F702-FF42-932F-1A16D33DC281}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4038600" y="3302000"/>
+          <a:ext cx="160020" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0B8D944-9719-CA41-AA8F-CAEB851A2665}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4711700" y="3302000"/>
+          <a:ext cx="160020" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96DB6A80-4A80-4942-9451-EF4ACCE9C401}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5384800" y="3302000"/>
+          <a:ext cx="121920" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39EE93D0-550D-F94B-90AE-10EB603260B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6057900" y="3302000"/>
+          <a:ext cx="114300" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5722F23A-05E9-7A4A-8C4E-A5E07218F952}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4020368" y="0"/>
+          <a:ext cx="160020" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFA0B63B-913F-514E-ADE4-914BEDA6C4B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4690429" y="0"/>
+          <a:ext cx="160020" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73CEB1AA-DD9C-BC41-9F4D-E515B6DD1EE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5360491" y="0"/>
+          <a:ext cx="121920" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13007AA9-190E-DE45-9FC0-3F04262A1B70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6030552" y="0"/>
+          <a:ext cx="114300" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A25246DD-474C-874A-81F1-67D46BECDD3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1340123" y="3116564"/>
+          <a:ext cx="160020" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEAA4A52-EE7B-784D-844D-C0D7696D39DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1340123" y="3319141"/>
+          <a:ext cx="160020" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19F4BD27-4E38-5941-8D4D-26C8ECB29488}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1340123" y="3521718"/>
+          <a:ext cx="121920" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{356BD20A-CDD8-0444-87D5-01559491FAB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1340123" y="3724294"/>
+          <a:ext cx="114300" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>3</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
+  <rel r:id="rId4"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2981,8 +4069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="AG38" sqref="AG38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4279,6 +5367,9 @@
       <c r="J19" s="14">
         <v>0</v>
       </c>
+      <c r="L19" t="s">
+        <v>22</v>
+      </c>
       <c r="N19">
         <v>100</v>
       </c>
@@ -4288,42 +5379,44 @@
         <v>0.1</v>
       </c>
       <c r="B20">
-        <v>11</v>
+        <f>B8</f>
+        <v>7</v>
       </c>
       <c r="C20">
         <f>SUM(A26:A33)</f>
-        <v>1.3343098464352929</v>
+        <v>1.5600288018799584</v>
       </c>
       <c r="D20">
         <f>SUM(E26:E33)</f>
-        <v>1.049841122793832</v>
+        <v>1.2781865882220893</v>
       </c>
       <c r="E20">
         <f>4.64*A20/SQRT(I26)*1000</f>
-        <v>1.352818840667072</v>
+        <v>1.3912186359193484</v>
       </c>
       <c r="F20">
         <f>0.37*1000*A20/(I26^0.2)</f>
-        <v>3.5817097493433363</v>
+        <v>3.6220353657735256</v>
       </c>
       <c r="G20">
         <f>0.646/SQRT(I26)</f>
-        <v>1.8834503686873459E-3</v>
+        <v>1.9369121525946102E-3</v>
       </c>
       <c r="H20">
         <f>0.0578/(I26^0.2)</f>
-        <v>5.5952114462714817E-3</v>
+        <v>5.6582065984245884E-3</v>
       </c>
       <c r="I20">
         <f>1.3/(I29^0.2)</f>
-        <v>9.0619580629406768E-2</v>
+        <v>9.1552664154694638E-2</v>
       </c>
       <c r="J20">
         <f>0.074/(I29^0.2)</f>
-        <v>5.1583453589046924E-3</v>
+        <v>5.2114593441903098E-3</v>
       </c>
       <c r="L20" s="9">
-        <v>20.94</v>
+        <f>D8</f>
+        <v>19.8</v>
       </c>
       <c r="N20">
         <v>200</v>
@@ -4334,34 +5427,36 @@
         <v>0.2</v>
       </c>
       <c r="B21">
-        <v>13</v>
+        <f>I10</f>
+        <v>11</v>
       </c>
       <c r="C21">
         <f>SUM(B26:B34)</f>
-        <v>1.7049347425507253</v>
+        <v>1.9126176140061766</v>
       </c>
       <c r="D21">
         <f>SUM(F26:F34)</f>
-        <v>1.3453758040554822</v>
+        <v>1.5563765351337013</v>
       </c>
       <c r="E21">
         <f t="shared" ref="E21:E23" si="12">4.64*A21/SQRT(I27)*1000</f>
-        <v>1.8960482257306734</v>
+        <v>1.947902858089811</v>
       </c>
       <c r="F21">
         <f t="shared" ref="F21:F23" si="13">0.37*1000*A21/(I27^0.2)</f>
-        <v>6.2137286077824117</v>
+        <v>6.2811540823826535</v>
       </c>
       <c r="G21">
         <f t="shared" ref="G21:G23" si="14">0.646/SQRT(I27)</f>
-        <v>1.3198783985151025E-3</v>
+        <v>1.3559754809547608E-3</v>
       </c>
       <c r="H21">
-        <f t="shared" ref="H21:H23" si="15">0.0578/(I27^0.2)</f>
-        <v>4.8534258585111265E-3</v>
+        <f>0.0578/(I27^0.2)</f>
+        <v>4.9060906211042879E-3</v>
       </c>
       <c r="L21" s="9">
-        <v>21.32</v>
+        <f>K10</f>
+        <v>20.2</v>
       </c>
       <c r="N21">
         <v>350</v>
@@ -4372,34 +5467,36 @@
         <v>0.35</v>
       </c>
       <c r="B22">
-        <v>15</v>
+        <f>P11</f>
+        <v>13</v>
       </c>
       <c r="C22">
         <f>SUM(C26:C36)</f>
-        <v>2.6751818132559446</v>
+        <v>2.9568464104432604</v>
       </c>
       <c r="D22">
         <f>SUM(G26:G35)</f>
-        <v>2.0891067657991154</v>
+        <v>2.3760603593403435</v>
       </c>
       <c r="E22">
         <f t="shared" si="12"/>
-        <v>2.4953941602191994</v>
+        <v>2.5704785546664262</v>
       </c>
       <c r="F22">
         <f t="shared" si="13"/>
-        <v>9.7026646266201109</v>
+        <v>9.8184052272721036</v>
       </c>
       <c r="G22">
         <f t="shared" si="14"/>
-        <v>9.9262600215615929E-4</v>
+        <v>1.0224933166961276E-3</v>
       </c>
       <c r="H22">
-        <f t="shared" si="15"/>
-        <v>4.3306101576729141E-3</v>
+        <f>0.0578/(I28^0.2)</f>
+        <v>4.3822688968056184E-3</v>
       </c>
       <c r="L22" s="9">
-        <v>21.54</v>
+        <f>R11</f>
+        <v>20.3</v>
       </c>
       <c r="N22">
         <v>500</v>
@@ -4410,39 +5507,64 @@
         <v>0.5</v>
       </c>
       <c r="B23">
-        <v>17</v>
+        <f>W12</f>
+        <v>15</v>
       </c>
       <c r="C23">
         <f>SUM(D26:D36)</f>
-        <v>4.1523836806996606</v>
+        <v>4.3910121681921765</v>
       </c>
       <c r="D23">
         <f>SUM(H26:H36)</f>
-        <v>3.294220882072433</v>
+        <v>3.536198990449829</v>
       </c>
       <c r="E23">
         <f t="shared" si="12"/>
-        <v>2.9763549617052565</v>
+        <v>3.0535643087766378</v>
       </c>
       <c r="F23">
         <f t="shared" si="13"/>
-        <v>12.895863397261731</v>
+        <v>13.028648360475776</v>
       </c>
       <c r="G23">
         <f t="shared" si="14"/>
-        <v>8.2876090744034303E-4</v>
+        <v>8.5025971701280538E-4</v>
       </c>
       <c r="H23">
-        <f t="shared" si="15"/>
-        <v>4.0290859695228543E-3</v>
+        <f t="shared" ref="H21:H23" si="15">0.0578/(I29^0.2)</f>
+        <v>4.0705722985702689E-3</v>
       </c>
       <c r="L23" s="9">
-        <v>21.63</v>
+        <f>Y12</f>
+        <v>20.55</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
+      <c r="A25" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>21</v>
+      </c>
       <c r="I25" t="s">
         <v>19</v>
       </c>
@@ -4482,7 +5604,7 @@
       </c>
       <c r="I26">
         <f>A20*L20/0.0000178</f>
-        <v>117640.44943820227</v>
+        <v>111235.9550561798</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -4519,8 +5641,8 @@
         <v>0.22864387402919834</v>
       </c>
       <c r="I27">
-        <f t="shared" ref="I27:I29" si="24">A21*L21/0.0000178</f>
-        <v>239550.56179775283</v>
+        <f>A21*L21/0.0000178</f>
+        <v>226966.29213483148</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -4557,8 +5679,8 @@
         <v>0.4081238266712004</v>
       </c>
       <c r="I28">
-        <f t="shared" si="24"/>
-        <v>423539.32584269659</v>
+        <f t="shared" ref="I28:I29" si="24">A22*L22/0.0000178</f>
+        <v>399157.30337078654</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -4596,7 +5718,7 @@
       </c>
       <c r="I29">
         <f t="shared" si="24"/>
-        <v>607584.26966292132</v>
+        <v>577247.19101123605</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -4669,8 +5791,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32">
-        <f t="shared" si="16"/>
-        <v>-8.1791332798649696E-2</v>
+        <v>0</v>
       </c>
       <c r="B32">
         <f t="shared" si="17"/>
@@ -4686,7 +5807,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="20"/>
-        <v>-8.2534646367647416E-2</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <f t="shared" si="21"/>
@@ -4703,8 +5824,7 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33">
-        <f t="shared" si="16"/>
-        <v>-0.14392762264601577</v>
+        <v>0</v>
       </c>
       <c r="B33">
         <f t="shared" si="17"/>
@@ -4720,7 +5840,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="20"/>
-        <v>-0.14581081906060978</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <f t="shared" si="21"/>
@@ -4737,8 +5857,7 @@
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B34">
-        <f t="shared" si="17"/>
-        <v>-0.20768287145545128</v>
+        <v>0</v>
       </c>
       <c r="C34">
         <f t="shared" si="18"/>
@@ -4750,7 +5869,7 @@
       </c>
       <c r="F34">
         <f>B34*M11</f>
-        <v>-0.21100073107821909</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <f t="shared" si="22"/>
@@ -4763,8 +5882,7 @@
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C35">
-        <f t="shared" si="18"/>
-        <v>-0.28166459718731551</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <f t="shared" si="19"/>
@@ -4772,7 +5890,7 @@
       </c>
       <c r="G35">
         <f t="shared" si="22"/>
-        <v>-0.28695359354122835</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <f t="shared" si="23"/>
@@ -4781,12 +5899,11 @@
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D36">
-        <f t="shared" si="19"/>
-        <v>-0.23862848749251553</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <f t="shared" si="23"/>
-        <v>-0.24197810837739586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -4841,8 +5958,8 @@
       <c r="D42" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="25">
-        <v>0</v>
+      <c r="E42" s="25" t="s">
+        <v>10</v>
       </c>
       <c r="F42" s="25" t="s">
         <v>11</v>
@@ -4859,11 +5976,11 @@
       <c r="J42" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K42" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="L42" s="25">
-        <v>0</v>
+      <c r="K42" s="25">
+        <v>0</v>
+      </c>
+      <c r="L42" s="25" t="s">
+        <v>10</v>
       </c>
       <c r="M42" s="25" t="s">
         <v>11</v>
@@ -4880,11 +5997,11 @@
       <c r="Q42" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R42" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="S42" s="25">
-        <v>0</v>
+      <c r="R42" s="25">
+        <v>0</v>
+      </c>
+      <c r="S42" s="25" t="s">
+        <v>10</v>
       </c>
       <c r="T42" s="25" t="s">
         <v>11</v>
@@ -4901,11 +6018,11 @@
       <c r="X42" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="Y42" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z42" s="25">
-        <v>0</v>
+      <c r="Y42" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="25" t="s">
+        <v>10</v>
       </c>
       <c r="AA42" s="25" t="s">
         <v>11</v>
@@ -6083,7 +7200,7 @@
         <v>0.56325908590912177</v>
       </c>
       <c r="W58">
-        <f t="shared" ref="W58:W68" si="39">W43/17</f>
+        <f>W43/17</f>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="Z58">
@@ -6096,14 +7213,14 @@
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B59">
-        <f t="shared" ref="B58:B65" si="40">B44/11</f>
+        <f t="shared" ref="B59:B65" si="39">B44/11</f>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="E59">
         <v>20.94</v>
       </c>
       <c r="G59">
-        <f t="shared" ref="G59:G64" si="41">E44/E59</f>
+        <f t="shared" ref="G59:G64" si="40">E44/E59</f>
         <v>0.67806072012603047</v>
       </c>
       <c r="I59">
@@ -6114,7 +7231,7 @@
         <v>21.32</v>
       </c>
       <c r="N59">
-        <f t="shared" ref="N59:N65" si="42">L44/L59</f>
+        <f t="shared" ref="N59:N65" si="41">L44/L59</f>
         <v>0.66597521010502247</v>
       </c>
       <c r="P59">
@@ -6125,11 +7242,11 @@
         <v>21.54</v>
       </c>
       <c r="U59">
-        <f t="shared" ref="U59:U66" si="43">S44/S59</f>
+        <f t="shared" ref="U59:U66" si="42">S44/S59</f>
         <v>0.62147448581918341</v>
       </c>
       <c r="W59">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="W59:W68" si="43">W44/17</f>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="Z59">
@@ -6142,14 +7259,14 @@
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B60">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0.18181818181818182</v>
       </c>
       <c r="E60">
         <v>20.94</v>
       </c>
       <c r="G60">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>0.76884858825207658</v>
       </c>
       <c r="I60">
@@ -6160,7 +7277,7 @@
         <v>21.32</v>
       </c>
       <c r="N60">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.73626329719882122</v>
       </c>
       <c r="P60">
@@ -6171,11 +7288,11 @@
         <v>21.54</v>
       </c>
       <c r="U60">
+        <f t="shared" si="42"/>
+        <v>0.6898486767319113</v>
+      </c>
+      <c r="W60">
         <f t="shared" si="43"/>
-        <v>0.6898486767319113</v>
-      </c>
-      <c r="W60">
-        <f t="shared" si="39"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="Z60">
@@ -6188,14 +7305,14 @@
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B61">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0.27272727272727271</v>
       </c>
       <c r="E61">
         <v>20.94</v>
       </c>
       <c r="G61">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>0.81043757156051277</v>
       </c>
       <c r="I61">
@@ -6206,7 +7323,7 @@
         <v>21.32</v>
       </c>
       <c r="N61">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.78709857273557349</v>
       </c>
       <c r="P61">
@@ -6217,11 +7334,11 @@
         <v>21.54</v>
       </c>
       <c r="U61">
+        <f t="shared" si="42"/>
+        <v>0.7428040854224699</v>
+      </c>
+      <c r="W61">
         <f t="shared" si="43"/>
-        <v>0.7428040854224699</v>
-      </c>
-      <c r="W61">
-        <f t="shared" si="39"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="Z61">
@@ -6234,14 +7351,14 @@
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B62">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0.45454545454545453</v>
       </c>
       <c r="E62">
         <v>20.94</v>
       </c>
       <c r="G62">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>0.90408096016804063</v>
       </c>
       <c r="I62">
@@ -6252,7 +7369,7 @@
         <v>21.32</v>
       </c>
       <c r="N62">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.86385474170516618</v>
       </c>
       <c r="P62">
@@ -6263,11 +7380,11 @@
         <v>21.54</v>
       </c>
       <c r="U62">
+        <f t="shared" si="42"/>
+        <v>0.81370110678576224</v>
+      </c>
+      <c r="W62">
         <f t="shared" si="43"/>
-        <v>0.81370110678576224</v>
-      </c>
-      <c r="W62">
-        <f t="shared" si="39"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="Z62">
@@ -6280,14 +7397,14 @@
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B63">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0.63636363636363635</v>
       </c>
       <c r="E63">
         <v>20.94</v>
       </c>
       <c r="G63">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>0.94357891386654957</v>
       </c>
       <c r="I63">
@@ -6298,7 +7415,7 @@
         <v>21.32</v>
       </c>
       <c r="N63">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.91144148604060926</v>
       </c>
       <c r="P63">
@@ -6309,11 +7426,11 @@
         <v>21.54</v>
       </c>
       <c r="U63">
+        <f t="shared" si="42"/>
+        <v>0.86306035570081718</v>
+      </c>
+      <c r="W63">
         <f t="shared" si="43"/>
-        <v>0.86306035570081718</v>
-      </c>
-      <c r="W63">
-        <f t="shared" si="39"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="Z63">
@@ -6326,14 +7443,14 @@
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B64">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0.81818181818181823</v>
       </c>
       <c r="E64">
         <v>20.94</v>
       </c>
       <c r="G64">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>0.95892266651469971</v>
       </c>
       <c r="I64">
@@ -6344,7 +7461,7 @@
         <v>21.32</v>
       </c>
       <c r="N64">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.93055135216789819</v>
       </c>
       <c r="P64">
@@ -6355,11 +7472,11 @@
         <v>21.54</v>
       </c>
       <c r="U64">
+        <f t="shared" si="42"/>
+        <v>0.90594695767134403</v>
+      </c>
+      <c r="W64">
         <f t="shared" si="43"/>
-        <v>0.90594695767134403</v>
-      </c>
-      <c r="W64">
-        <f t="shared" si="39"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="Z64">
@@ -6372,7 +7489,7 @@
     </row>
     <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B65">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="E65">
@@ -6389,7 +7506,7 @@
         <v>21.32</v>
       </c>
       <c r="N65">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.94927659592296565</v>
       </c>
       <c r="P65">
@@ -6400,11 +7517,11 @@
         <v>21.54</v>
       </c>
       <c r="U65">
+        <f t="shared" si="42"/>
+        <v>0.932211728728775</v>
+      </c>
+      <c r="W65">
         <f t="shared" si="43"/>
-        <v>0.932211728728775</v>
-      </c>
-      <c r="W65">
-        <f t="shared" si="39"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="Z65">
@@ -6434,11 +7551,11 @@
         <v>21.54</v>
       </c>
       <c r="U66">
+        <f t="shared" si="42"/>
+        <v>0.94324420421172106</v>
+      </c>
+      <c r="W66">
         <f t="shared" si="43"/>
-        <v>0.94324420421172106</v>
-      </c>
-      <c r="W66">
-        <f t="shared" si="39"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="Z66">
@@ -6461,7 +7578,7 @@
         <v>1</v>
       </c>
       <c r="W67">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="Z67">
@@ -6474,7 +7591,7 @@
     </row>
     <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="W68">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="Z68">
@@ -6547,7 +7664,7 @@
       </c>
       <c r="AC72">
         <f>W43/$E$23</f>
-        <v>0.16799071563478193</v>
+        <v>0.16374307184652584</v>
       </c>
     </row>
     <row r="73" spans="2:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
@@ -6580,7 +7697,7 @@
       </c>
       <c r="AC73">
         <f t="shared" ref="AC73:AC77" si="48">W44/$E$23</f>
-        <v>0.33598143126956387</v>
+        <v>0.32748614369305168</v>
       </c>
     </row>
     <row r="74" spans="2:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
@@ -6613,7 +7730,7 @@
       </c>
       <c r="AC74">
         <f t="shared" si="48"/>
-        <v>0.67196286253912774</v>
+        <v>0.65497228738610336</v>
       </c>
     </row>
     <row r="75" spans="2:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
@@ -6675,7 +7792,7 @@
       </c>
       <c r="AC76">
         <f t="shared" si="48"/>
-        <v>1.6799071563478194</v>
+        <v>1.6374307184652583</v>
       </c>
     </row>
     <row r="77" spans="2:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
@@ -6705,7 +7822,7 @@
       </c>
       <c r="AC77">
         <f t="shared" si="48"/>
-        <v>2.351870018886947</v>
+        <v>2.2924030058513618</v>
       </c>
     </row>
     <row r="78" spans="2:29" ht="19" thickBot="1" x14ac:dyDescent="0.25">
@@ -6831,24 +7948,1967 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AB15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31:M36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="4.1640625" customWidth="1"/>
+    <col min="3" max="3" width="4.5" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" customWidth="1"/>
+    <col min="8" max="9" width="4.1640625" customWidth="1"/>
+    <col min="10" max="10" width="4.5" customWidth="1"/>
+    <col min="11" max="11" width="6.83203125" customWidth="1"/>
+    <col min="15" max="16" width="4.1640625" customWidth="1"/>
+    <col min="17" max="17" width="4.5" customWidth="1"/>
+    <col min="18" max="18" width="6.83203125" customWidth="1"/>
+    <col min="22" max="23" width="4.1640625" customWidth="1"/>
+    <col min="24" max="24" width="4.5" customWidth="1"/>
+    <col min="25" max="25" width="6.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="34"/>
+    </row>
+    <row r="2" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3" s="23">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="6">
+        <v>58</v>
+      </c>
+      <c r="D3" s="8">
+        <v>13.63</v>
+      </c>
+      <c r="E3" s="26">
+        <f>4*SQRT($B$17*C3)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
+        <f>E3/0.99/$D$9</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="10">
+        <f>1-F3</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="23">
+        <v>1</v>
+      </c>
+      <c r="I3" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="6">
+        <v>52</v>
+      </c>
+      <c r="K3" s="8">
+        <v>12.9</v>
+      </c>
+      <c r="L3" s="26">
+        <f>4*SQRT($B$17*J3)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="8">
+        <f>L3/0.99/$K$10</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="10">
+        <f>1-M3</f>
+        <v>1</v>
+      </c>
+      <c r="O3" s="23">
+        <v>1</v>
+      </c>
+      <c r="P3" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>46</v>
+      </c>
+      <c r="R3" s="8">
+        <v>12.14</v>
+      </c>
+      <c r="S3" s="26">
+        <f>4*SQRT($B$17*Q3)</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="8">
+        <f>S3/0.99/$R$11</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="10">
+        <f>1-T3</f>
+        <v>1</v>
+      </c>
+      <c r="V3" s="23">
+        <v>1</v>
+      </c>
+      <c r="W3" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="X3" s="6">
+        <v>46</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>12.14</v>
+      </c>
+      <c r="Z3" s="26">
+        <f>4*SQRT($B$17*X3)</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="8">
+        <f>Z3/0.99/$Y$12</f>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="10">
+        <f>1-AA3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" s="17">
+        <v>2</v>
+      </c>
+      <c r="B4" s="21">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>63</v>
+      </c>
+      <c r="D4" s="9">
+        <v>14.2</v>
+      </c>
+      <c r="E4" s="26">
+        <f t="shared" ref="E4:E10" si="0">4*SQRT($B$17*C4)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <f>E4/0.99/$D$9</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="10">
+        <f t="shared" ref="G4:G10" si="1">1-F4</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="17">
+        <v>2</v>
+      </c>
+      <c r="I4" s="21">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7">
+        <v>63</v>
+      </c>
+      <c r="K4" s="9">
+        <v>14.2</v>
+      </c>
+      <c r="L4" s="26">
+        <f t="shared" ref="L4:L11" si="2">4*SQRT($B$17*J4)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="8">
+        <f t="shared" ref="M4:M11" si="3">L4/0.99/$K$10</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="10">
+        <f t="shared" ref="N4:N11" si="4">1-M4</f>
+        <v>1</v>
+      </c>
+      <c r="O4" s="17">
+        <v>2</v>
+      </c>
+      <c r="P4" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>56</v>
+      </c>
+      <c r="R4" s="9">
+        <v>13.4</v>
+      </c>
+      <c r="S4" s="26">
+        <f t="shared" ref="S4:S12" si="5">4*SQRT($B$17*Q4)</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="8">
+        <f>S4/0.99/$R$11</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="10">
+        <f t="shared" ref="U4:U12" si="6">1-T4</f>
+        <v>1</v>
+      </c>
+      <c r="V4" s="17">
+        <v>2</v>
+      </c>
+      <c r="W4" s="21">
+        <v>1</v>
+      </c>
+      <c r="X4" s="7">
+        <v>54</v>
+      </c>
+      <c r="Y4" s="9">
+        <v>13.14</v>
+      </c>
+      <c r="Z4" s="26">
+        <f t="shared" ref="Z4:Z13" si="7">4*SQRT($B$17*X4)</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="8">
+        <f>Z4/0.99/$Y$12</f>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="10">
+        <f t="shared" ref="AB4:AB13" si="8">1-AA4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5" s="17">
+        <v>3</v>
+      </c>
+      <c r="B5" s="21">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7">
+        <v>81</v>
+      </c>
+      <c r="D5" s="9">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E5" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <f t="shared" ref="F5:F10" si="9">E5/0.99/$D$9</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H5" s="17">
+        <v>3</v>
+      </c>
+      <c r="I5" s="21">
+        <v>2</v>
+      </c>
+      <c r="J5" s="7">
+        <v>77</v>
+      </c>
+      <c r="K5" s="9">
+        <v>15.7</v>
+      </c>
+      <c r="L5" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O5" s="17">
+        <v>3</v>
+      </c>
+      <c r="P5" s="21">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>69</v>
+      </c>
+      <c r="R5" s="9">
+        <v>14.9</v>
+      </c>
+      <c r="S5" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T5" s="8">
+        <f t="shared" ref="T5:T12" si="10">S5/0.99/$R$11</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V5" s="17">
+        <v>3</v>
+      </c>
+      <c r="W5" s="21">
+        <v>2</v>
+      </c>
+      <c r="X5" s="7">
+        <v>66</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>14.53</v>
+      </c>
+      <c r="Z5" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="8">
+        <f t="shared" ref="AA5:AA13" si="11">Z5/0.99/$Y$12</f>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="10">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A6" s="17">
+        <v>4</v>
+      </c>
+      <c r="B6" s="21">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>90</v>
+      </c>
+      <c r="D6" s="9">
+        <v>17</v>
+      </c>
+      <c r="E6" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <f>E6/0.99/$D$9</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H6" s="17">
+        <v>4</v>
+      </c>
+      <c r="I6" s="21">
+        <v>3</v>
+      </c>
+      <c r="J6" s="7">
+        <v>88</v>
+      </c>
+      <c r="K6" s="9">
+        <v>16.8</v>
+      </c>
+      <c r="L6" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O6" s="17">
+        <v>4</v>
+      </c>
+      <c r="P6" s="21">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>80</v>
+      </c>
+      <c r="R6" s="9">
+        <v>16</v>
+      </c>
+      <c r="S6" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V6" s="17">
+        <v>4</v>
+      </c>
+      <c r="W6" s="21">
+        <v>3</v>
+      </c>
+      <c r="X6" s="7">
+        <v>74</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>15.4</v>
+      </c>
+      <c r="Z6" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="10">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7" s="17">
+        <v>5</v>
+      </c>
+      <c r="B7" s="21">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7">
+        <v>112</v>
+      </c>
+      <c r="D7" s="9">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E7" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <f>E7/0.99/$D$9</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H7" s="17">
+        <v>5</v>
+      </c>
+      <c r="I7" s="21">
+        <v>5</v>
+      </c>
+      <c r="J7" s="7">
+        <v>106</v>
+      </c>
+      <c r="K7" s="9">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="L7" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O7" s="17">
+        <v>5</v>
+      </c>
+      <c r="P7" s="21">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>96</v>
+      </c>
+      <c r="R7" s="9">
+        <v>17.5</v>
+      </c>
+      <c r="S7" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="8">
+        <f>S7/0.99/$R$11</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V7" s="17">
+        <v>5</v>
+      </c>
+      <c r="W7" s="21">
+        <v>5</v>
+      </c>
+      <c r="X7" s="7">
+        <v>87</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>16.7</v>
+      </c>
+      <c r="Z7" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="10">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8" s="17">
+        <v>6</v>
+      </c>
+      <c r="B8" s="21">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7">
+        <v>122</v>
+      </c>
+      <c r="D8" s="9">
+        <v>19.8</v>
+      </c>
+      <c r="E8" s="26">
+        <f>4*SQRT($B$17*C8)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <f>E8/0.99/$D$9</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H8" s="17">
+        <v>6</v>
+      </c>
+      <c r="I8" s="21">
+        <v>7</v>
+      </c>
+      <c r="J8" s="7">
+        <v>118</v>
+      </c>
+      <c r="K8" s="9">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="L8" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
+        <f>L8/0.99/$K$10</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="10">
+        <f>1-M8</f>
+        <v>1</v>
+      </c>
+      <c r="O8" s="17">
+        <v>6</v>
+      </c>
+      <c r="P8" s="21">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>108</v>
+      </c>
+      <c r="R8" s="9">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="S8" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V8" s="17">
+        <v>6</v>
+      </c>
+      <c r="W8" s="21">
+        <v>7</v>
+      </c>
+      <c r="X8" s="7">
+        <v>100</v>
+      </c>
+      <c r="Y8" s="9">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="Z8" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="10">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A9" s="17">
+        <v>7</v>
+      </c>
+      <c r="B9" s="21">
+        <v>9</v>
+      </c>
+      <c r="C9" s="7">
+        <v>126</v>
+      </c>
+      <c r="D9" s="9">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="E9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="17">
+        <v>7</v>
+      </c>
+      <c r="I9" s="21">
+        <v>9</v>
+      </c>
+      <c r="J9" s="7">
+        <v>123</v>
+      </c>
+      <c r="K9" s="9">
+        <v>19.8</v>
+      </c>
+      <c r="L9" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O9" s="17">
+        <v>7</v>
+      </c>
+      <c r="P9" s="21">
+        <v>9</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>119</v>
+      </c>
+      <c r="R9" s="9">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="S9" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V9" s="17">
+        <v>7</v>
+      </c>
+      <c r="W9" s="21">
+        <v>9</v>
+      </c>
+      <c r="X9" s="7">
+        <v>114</v>
+      </c>
+      <c r="Y9" s="9">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="Z9" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="10">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A10" s="17">
+        <v>8</v>
+      </c>
+      <c r="B10" s="21">
+        <v>11</v>
+      </c>
+      <c r="C10" s="7">
+        <v>127</v>
+      </c>
+      <c r="D10" s="9">
+        <v>20.76</v>
+      </c>
+      <c r="E10" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H10" s="17">
+        <v>8</v>
+      </c>
+      <c r="I10" s="21">
+        <v>11</v>
+      </c>
+      <c r="J10" s="7">
+        <v>128</v>
+      </c>
+      <c r="K10" s="9">
+        <v>20.2</v>
+      </c>
+      <c r="L10" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="8">
+        <f>L10/0.99/$K$10</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O10" s="17">
+        <v>8</v>
+      </c>
+      <c r="P10" s="21">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>126</v>
+      </c>
+      <c r="R10" s="9">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="S10" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V10" s="17">
+        <v>8</v>
+      </c>
+      <c r="W10" s="21">
+        <v>11</v>
+      </c>
+      <c r="X10" s="7">
+        <v>123</v>
+      </c>
+      <c r="Y10" s="9">
+        <v>19.84</v>
+      </c>
+      <c r="Z10" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="10">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A11" s="17">
+        <v>9</v>
+      </c>
+      <c r="B11" s="21">
+        <v>13</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="17">
+        <v>9</v>
+      </c>
+      <c r="I11" s="21">
+        <v>13</v>
+      </c>
+      <c r="J11" s="7">
+        <v>129</v>
+      </c>
+      <c r="K11" s="9">
+        <v>20.3</v>
+      </c>
+      <c r="L11" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O11" s="17">
+        <v>9</v>
+      </c>
+      <c r="P11" s="21">
+        <v>13</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>129</v>
+      </c>
+      <c r="R11" s="9">
+        <v>20.3</v>
+      </c>
+      <c r="S11" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V11" s="17">
+        <v>9</v>
+      </c>
+      <c r="W11" s="21">
+        <v>13</v>
+      </c>
+      <c r="X11" s="7">
+        <v>127</v>
+      </c>
+      <c r="Y11" s="9">
+        <v>20.16</v>
+      </c>
+      <c r="Z11" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="10">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12" s="17">
+        <v>10</v>
+      </c>
+      <c r="B12" s="21">
+        <v>15</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="17">
+        <v>10</v>
+      </c>
+      <c r="I12" s="21">
+        <v>15</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="17">
+        <v>10</v>
+      </c>
+      <c r="P12" s="21">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>131</v>
+      </c>
+      <c r="R12" s="9">
+        <v>20.5</v>
+      </c>
+      <c r="S12" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V12" s="17">
+        <v>10</v>
+      </c>
+      <c r="W12" s="21">
+        <v>15</v>
+      </c>
+      <c r="X12" s="7">
+        <v>132</v>
+      </c>
+      <c r="Y12" s="9">
+        <v>20.55</v>
+      </c>
+      <c r="Z12" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="10">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13" s="17">
+        <v>11</v>
+      </c>
+      <c r="B13" s="21">
+        <v>17</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="17">
+        <v>11</v>
+      </c>
+      <c r="I13" s="21">
+        <v>17</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="17">
+        <v>11</v>
+      </c>
+      <c r="P13" s="21">
+        <v>17</v>
+      </c>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="17">
+        <v>11</v>
+      </c>
+      <c r="W13" s="21">
+        <v>17</v>
+      </c>
+      <c r="X13" s="7">
+        <v>133</v>
+      </c>
+      <c r="Y13" s="9">
+        <v>20.63</v>
+      </c>
+      <c r="Z13" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="10">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A14" s="17">
+        <v>12</v>
+      </c>
+      <c r="B14" s="21">
+        <v>19</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="17">
+        <v>12</v>
+      </c>
+      <c r="I14" s="21">
+        <v>19</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="17">
+        <v>12</v>
+      </c>
+      <c r="P14" s="21">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="17">
+        <v>12</v>
+      </c>
+      <c r="W14" s="21">
+        <v>19</v>
+      </c>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="11"/>
+    </row>
+    <row r="15" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>13</v>
+      </c>
+      <c r="B15" s="22">
+        <v>21</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="18">
+        <v>13</v>
+      </c>
+      <c r="I15" s="22">
+        <v>21</v>
+      </c>
+      <c r="J15" s="12"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="18">
+        <v>13</v>
+      </c>
+      <c r="P15" s="22">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="18">
+        <v>13</v>
+      </c>
+      <c r="W15" s="22">
+        <v>21</v>
+      </c>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="O1:U1"/>
+    <mergeCell ref="V1:AB1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="163" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19:O20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="37">
+        <v>0</v>
+      </c>
+      <c r="B2" s="38">
+        <v>0</v>
+      </c>
+      <c r="C2" s="39">
+        <v>0</v>
+      </c>
+      <c r="D2" s="39">
+        <v>0</v>
+      </c>
+      <c r="E2" s="39">
+        <v>0</v>
+      </c>
+      <c r="F2" s="39">
+        <v>0</v>
+      </c>
+      <c r="G2" s="39">
+        <v>0</v>
+      </c>
+      <c r="H2" s="39">
+        <v>0</v>
+      </c>
+      <c r="I2" s="39">
+        <v>0</v>
+      </c>
+      <c r="J2" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="B3" s="37">
+        <v>11</v>
+      </c>
+      <c r="C3" s="37">
+        <v>1.3343100000000001</v>
+      </c>
+      <c r="D3" s="37">
+        <v>1.049841</v>
+      </c>
+      <c r="E3" s="37">
+        <v>1.358671</v>
+      </c>
+      <c r="F3" s="37">
+        <v>3.5878990000000002</v>
+      </c>
+      <c r="G3" s="37">
+        <v>1.892E-3</v>
+      </c>
+      <c r="H3" s="37">
+        <v>5.6049999999999997E-3</v>
+      </c>
+      <c r="I3" s="37">
+        <v>9.1481999999999994E-2</v>
+      </c>
+      <c r="J3" s="37">
+        <v>5.2069999999999998E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="37">
+        <v>0.2</v>
+      </c>
+      <c r="B4" s="37">
+        <v>13</v>
+      </c>
+      <c r="C4" s="37">
+        <v>1.7049350000000001</v>
+      </c>
+      <c r="D4" s="37">
+        <v>1.3453759999999999</v>
+      </c>
+      <c r="E4" s="37">
+        <v>1.9430989999999999</v>
+      </c>
+      <c r="F4" s="37">
+        <v>6.2749540000000001</v>
+      </c>
+      <c r="G4" s="37">
+        <v>1.353E-3</v>
+      </c>
+      <c r="H4" s="37">
+        <v>4.901E-3</v>
+      </c>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="37">
+        <v>0.35</v>
+      </c>
+      <c r="B5" s="37">
+        <v>15</v>
+      </c>
+      <c r="C5" s="37">
+        <v>2.6751819999999999</v>
+      </c>
+      <c r="D5" s="37">
+        <v>2.0891069999999998</v>
+      </c>
+      <c r="E5" s="37">
+        <v>2.557909</v>
+      </c>
+      <c r="F5" s="37">
+        <v>9.7991720000000004</v>
+      </c>
+      <c r="G5" s="37">
+        <v>1.0169999999999999E-3</v>
+      </c>
+      <c r="H5" s="37">
+        <v>4.3740000000000003E-3</v>
+      </c>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="B6" s="37">
+        <v>17</v>
+      </c>
+      <c r="C6" s="37">
+        <v>4.1523839999999996</v>
+      </c>
+      <c r="D6" s="37">
+        <v>3.2942209999999998</v>
+      </c>
+      <c r="E6" s="37">
+        <v>3.0476380000000001</v>
+      </c>
+      <c r="F6" s="37">
+        <v>13.01853</v>
+      </c>
+      <c r="G6" s="37">
+        <v>8.4900000000000004E-4</v>
+      </c>
+      <c r="H6" s="37">
+        <v>4.0670000000000003E-3</v>
+      </c>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+    </row>
+    <row r="10" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="42">
+        <v>0</v>
+      </c>
+      <c r="E11" s="42">
+        <v>100</v>
+      </c>
+      <c r="F11" s="42">
+        <v>200</v>
+      </c>
+      <c r="G11" s="42">
+        <v>350</v>
+      </c>
+      <c r="H11" s="42">
+        <v>500</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="42">
+        <v>0</v>
+      </c>
+      <c r="L11" s="42">
+        <v>100</v>
+      </c>
+      <c r="M11" s="42">
+        <v>200</v>
+      </c>
+      <c r="N11" s="42">
+        <v>350</v>
+      </c>
+      <c r="O11" s="42">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="43">
+        <v>0</v>
+      </c>
+      <c r="E12" s="44">
+        <v>11</v>
+      </c>
+      <c r="F12" s="44">
+        <v>13</v>
+      </c>
+      <c r="G12" s="44">
+        <v>15</v>
+      </c>
+      <c r="H12" s="45">
+        <v>17</v>
+      </c>
+      <c r="J12" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="43">
+        <v>0</v>
+      </c>
+      <c r="L12" s="44">
+        <v>7</v>
+      </c>
+      <c r="M12" s="44">
+        <v>11</v>
+      </c>
+      <c r="N12" s="44">
+        <v>13</v>
+      </c>
+      <c r="O12" s="59">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="46">
+        <v>0</v>
+      </c>
+      <c r="E13" s="47">
+        <v>1.3343100000000001</v>
+      </c>
+      <c r="F13" s="47">
+        <v>1.7049350000000001</v>
+      </c>
+      <c r="G13" s="47">
+        <v>2.6751819999999999</v>
+      </c>
+      <c r="H13" s="48">
+        <v>4.1523839999999996</v>
+      </c>
+      <c r="J13" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="46">
+        <v>0</v>
+      </c>
+      <c r="L13" s="60">
+        <v>1.5600290000000001</v>
+      </c>
+      <c r="M13" s="60">
+        <v>1.9126179999999999</v>
+      </c>
+      <c r="N13" s="60">
+        <v>2.9568460000000001</v>
+      </c>
+      <c r="O13" s="61">
+        <v>4.3910119999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="46">
+        <v>0</v>
+      </c>
+      <c r="E14" s="47">
+        <v>1.049841</v>
+      </c>
+      <c r="F14" s="47">
+        <v>1.3453759999999999</v>
+      </c>
+      <c r="G14" s="47">
+        <v>2.0891069999999998</v>
+      </c>
+      <c r="H14" s="48">
+        <v>3.2942209999999998</v>
+      </c>
+      <c r="J14" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="46">
+        <v>0</v>
+      </c>
+      <c r="L14" s="60">
+        <v>1.278187</v>
+      </c>
+      <c r="M14" s="60">
+        <v>1.5563769999999999</v>
+      </c>
+      <c r="N14" s="60">
+        <v>2.3760599999999998</v>
+      </c>
+      <c r="O14" s="61">
+        <v>3.5361989999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="46">
+        <v>0</v>
+      </c>
+      <c r="E15" s="47">
+        <v>1.358671</v>
+      </c>
+      <c r="F15" s="47">
+        <v>1.9430989999999999</v>
+      </c>
+      <c r="G15" s="47">
+        <v>2.557909</v>
+      </c>
+      <c r="H15" s="48">
+        <v>3.0476380000000001</v>
+      </c>
+      <c r="J15" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="46">
+        <v>0</v>
+      </c>
+      <c r="L15" s="60">
+        <v>1.391219</v>
+      </c>
+      <c r="M15" s="60">
+        <v>1.9479029999999999</v>
+      </c>
+      <c r="N15" s="60">
+        <v>2.5704790000000002</v>
+      </c>
+      <c r="O15" s="61">
+        <v>3.0535640000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="46">
+        <v>0</v>
+      </c>
+      <c r="E16" s="47">
+        <v>3.5878990000000002</v>
+      </c>
+      <c r="F16" s="47">
+        <v>6.2749540000000001</v>
+      </c>
+      <c r="G16" s="47">
+        <v>9.7991720000000004</v>
+      </c>
+      <c r="H16" s="48">
+        <v>13.01853</v>
+      </c>
+      <c r="J16" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="46">
+        <v>0</v>
+      </c>
+      <c r="L16" s="60">
+        <v>3.6220349999999999</v>
+      </c>
+      <c r="M16" s="60">
+        <v>6.2811539999999999</v>
+      </c>
+      <c r="N16" s="60">
+        <v>9.8184050000000003</v>
+      </c>
+      <c r="O16" s="61">
+        <v>13.028650000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="28"/>
+      <c r="D17" s="46">
+        <v>0</v>
+      </c>
+      <c r="E17" s="47">
+        <v>1.892E-3</v>
+      </c>
+      <c r="F17" s="47">
+        <v>1.353E-3</v>
+      </c>
+      <c r="G17" s="47">
+        <v>1.0169999999999999E-3</v>
+      </c>
+      <c r="H17" s="48">
+        <v>8.4900000000000004E-4</v>
+      </c>
+      <c r="J17" s="28"/>
+      <c r="K17" s="46">
+        <v>0</v>
+      </c>
+      <c r="L17" s="60">
+        <v>1.9369999999999999E-3</v>
+      </c>
+      <c r="M17" s="60">
+        <v>1.356E-3</v>
+      </c>
+      <c r="N17" s="60">
+        <v>1.0219999999999999E-3</v>
+      </c>
+      <c r="O17" s="61">
+        <v>8.4999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="28"/>
+      <c r="D18" s="46">
+        <v>0</v>
+      </c>
+      <c r="E18" s="47">
+        <v>5.6049999999999997E-3</v>
+      </c>
+      <c r="F18" s="47">
+        <v>4.901E-3</v>
+      </c>
+      <c r="G18" s="47">
+        <v>4.3740000000000003E-3</v>
+      </c>
+      <c r="H18" s="48">
+        <v>4.0670000000000003E-3</v>
+      </c>
+      <c r="J18" s="28"/>
+      <c r="K18" s="46">
+        <v>0</v>
+      </c>
+      <c r="L18" s="60">
+        <v>5.6579999999999998E-3</v>
+      </c>
+      <c r="M18" s="60">
+        <v>4.9059999999999998E-3</v>
+      </c>
+      <c r="N18" s="60">
+        <v>4.3819999999999996E-3</v>
+      </c>
+      <c r="O18" s="61">
+        <v>4.071E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="28"/>
+      <c r="D19" s="46">
+        <v>0</v>
+      </c>
+      <c r="E19" s="49">
+        <v>9.1481999999999994E-2</v>
+      </c>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="50"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="46">
+        <v>0</v>
+      </c>
+      <c r="L19" s="49">
+        <v>9.1552999999999995E-2</v>
+      </c>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="50"/>
+    </row>
+    <row r="20" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="28"/>
+      <c r="D20" s="51">
+        <v>0</v>
+      </c>
+      <c r="E20" s="52">
+        <v>5.2069999999999998E-3</v>
+      </c>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="53"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="51">
+        <v>0</v>
+      </c>
+      <c r="L20" s="52">
+        <v>5.2110000000000004E-3</v>
+      </c>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="53"/>
+    </row>
+    <row r="24" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="55" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K25" s="55" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L25" s="55" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M25" s="55" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D26" s="57">
+        <v>0</v>
+      </c>
+      <c r="E26" s="58">
+        <v>0</v>
+      </c>
+      <c r="F26" s="58">
+        <v>0</v>
+      </c>
+      <c r="G26" s="58">
+        <v>0</v>
+      </c>
+      <c r="H26" s="58">
+        <v>0</v>
+      </c>
+      <c r="I26" s="58">
+        <v>0</v>
+      </c>
+      <c r="J26" s="58">
+        <v>0</v>
+      </c>
+      <c r="K26" s="58">
+        <v>0</v>
+      </c>
+      <c r="L26" s="58">
+        <v>0</v>
+      </c>
+      <c r="M26" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D27" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="E27" s="57">
+        <v>7</v>
+      </c>
+      <c r="F27" s="57">
+        <v>1.5600290000000001</v>
+      </c>
+      <c r="G27" s="57">
+        <v>1.278187</v>
+      </c>
+      <c r="H27" s="57">
+        <v>1.391219</v>
+      </c>
+      <c r="I27" s="57">
+        <v>3.6220349999999999</v>
+      </c>
+      <c r="J27" s="57">
+        <v>1.9369999999999999E-3</v>
+      </c>
+      <c r="K27" s="57">
+        <v>5.6579999999999998E-3</v>
+      </c>
+      <c r="L27" s="57">
+        <v>9.1552999999999995E-2</v>
+      </c>
+      <c r="M27" s="57">
+        <v>5.2110000000000004E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="D28" s="57">
+        <v>0.2</v>
+      </c>
+      <c r="E28" s="57">
+        <v>11</v>
+      </c>
+      <c r="F28" s="57">
+        <v>1.9126179999999999</v>
+      </c>
+      <c r="G28" s="57">
+        <v>1.5563769999999999</v>
+      </c>
+      <c r="H28" s="57">
+        <v>1.9479029999999999</v>
+      </c>
+      <c r="I28" s="57">
+        <v>6.2811539999999999</v>
+      </c>
+      <c r="J28" s="57">
+        <v>1.356E-3</v>
+      </c>
+      <c r="K28" s="57">
+        <v>4.9059999999999998E-3</v>
+      </c>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+    </row>
+    <row r="29" spans="3:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="D29" s="57">
+        <v>0.35</v>
+      </c>
+      <c r="E29" s="57">
+        <v>13</v>
+      </c>
+      <c r="F29" s="57">
+        <v>2.9568460000000001</v>
+      </c>
+      <c r="G29" s="57">
+        <v>2.3760599999999998</v>
+      </c>
+      <c r="H29" s="57">
+        <v>2.5704790000000002</v>
+      </c>
+      <c r="I29" s="57">
+        <v>9.8184050000000003</v>
+      </c>
+      <c r="J29" s="57">
+        <v>1.0219999999999999E-3</v>
+      </c>
+      <c r="K29" s="57">
+        <v>4.3819999999999996E-3</v>
+      </c>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+    </row>
+    <row r="30" spans="3:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="D30" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="57">
+        <v>15</v>
+      </c>
+      <c r="F30" s="57">
+        <v>4.3910119999999999</v>
+      </c>
+      <c r="G30" s="57">
+        <v>3.5361989999999999</v>
+      </c>
+      <c r="H30" s="57">
+        <v>3.0535640000000002</v>
+      </c>
+      <c r="I30" s="57">
+        <v>13.028650000000001</v>
+      </c>
+      <c r="J30" s="57">
+        <v>8.4999999999999995E-4</v>
+      </c>
+      <c r="K30" s="57">
+        <v>4.071E-3</v>
+      </c>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="L20:O20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>